--- a/downloaded_files/CMPS101_Lecture-35407.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35407.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -214,6 +214,24 @@
   </x:si>
   <x:si>
     <x:t>abdallah ibraheem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240091</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على احمد محمد محمود محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Ahmed Mohamed Mahmoud Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على تامر عبدالكريم منسى عبدالغفار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aly Tamer AbdelKareem Mansy Abdelghaffar</x:t>
   </x:si>
   <x:si>
     <x:t>1240101</x:t>
@@ -470,7 +488,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +788,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1529,7 +1547,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6999077546</x:v>
+        <x:v>45921.414240625</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1561,7 +1579,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45921.4167136574</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1593,7 +1611,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4212085301</x:v>
+        <x:v>45907.6999077546</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1625,7 +1643,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1657,7 +1675,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6745321412</x:v>
+        <x:v>45907.4212085301</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1689,7 +1707,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6670702199</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1721,7 +1739,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6790899306</x:v>
+        <x:v>45907.6745321412</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1753,7 +1771,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.6670702199</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1785,7 +1803,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6790899306</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1817,7 +1835,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1849,7 +1867,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1881,7 +1899,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6750537384</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1913,7 +1931,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.667058831</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1945,7 +1963,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45907.6750537384</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1977,7 +1995,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45907.667058831</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2005,9 +2023,11 @@
       <x:c r="C38" s="2" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="D38" s="2" t="s"/>
+      <x:c r="D38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.7324891204</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2024,6 +2044,68 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45915.9642383912</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s"/>
+      <x:c r="E40" s="3">
+        <x:v>45909.7324891204</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Lecture-35407.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35407.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -190,6 +190,15 @@
   </x:si>
   <x:si>
     <x:t>Abdallah Khafagy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن احمد عبدالباسط احمد عبدالفتاح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Ahmed Abdelbaset Ahmed Abdelfattah</x:t>
   </x:si>
   <x:si>
     <x:t>1240085</x:t>
@@ -488,7 +497,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -788,7 +797,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1453,7 +1462,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45921.9744525463</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1481,9 +1490,11 @@
       <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
+      <x:c r="D21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.9761419329</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1506,16 +1517,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45915.9761419329</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1547,7 +1556,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45921.414240625</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1579,7 +1588,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.4167136574</x:v>
+        <x:v>45921.414240625</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6999077546</x:v>
+        <x:v>45921.4167136574</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6999077546</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1675,7 +1684,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4212085301</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1707,7 +1716,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.4212085301</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1739,7 +1748,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6745321412</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6670702199</x:v>
+        <x:v>45907.6745321412</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1803,7 +1812,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6790899306</x:v>
+        <x:v>45907.6670702199</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1835,7 +1844,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.6790899306</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1867,7 +1876,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1899,7 +1908,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1931,7 +1940,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1963,7 +1972,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6750537384</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1995,7 +2004,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.667058831</x:v>
+        <x:v>45907.6750537384</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2027,7 +2036,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45907.667058831</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2059,7 +2068,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2087,9 +2096,11 @@
       <x:c r="C40" s="2" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="D40" s="2" t="s"/>
+      <x:c r="D40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.7324891204</x:v>
+        <x:v>45915.9642383912</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2106,6 +2117,36 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s"/>
+      <x:c r="E41" s="3">
+        <x:v>45909.7324891204</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Lecture-35407.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35407.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,15 +60,6 @@
     <x:t>Ahmed Mohamed Fawzy Abdelmaboud</x:t>
   </x:si>
   <x:si>
-    <x:t>1240020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد ياسر رمضان ابراهيم والى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Yasser Ramadan Ibrahim</x:t>
-  </x:si>
-  <x:si>
     <x:t>2230003</x:t>
   </x:si>
   <x:si>
@@ -174,6 +165,15 @@
     <x:t>Abdulrahman Ahmed Mahmoud Ali Salama</x:t>
   </x:si>
   <x:si>
+    <x:t>1240230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن ثامر محمد الذهبي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman thamer mohamed elzahaby</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240081</x:t>
   </x:si>
   <x:si>
@@ -270,6 +270,15 @@
     <x:t>Clara Hany Fawzy Swares</x:t>
   </x:si>
   <x:si>
+    <x:t>1240124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كيرلس اشرف اسحق فوزى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kirolos Ashraf Ishak Fawzy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240351</x:t>
   </x:si>
   <x:si>
@@ -295,6 +304,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Hazem Ali Attia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230242</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد حسام الدين محمد احمد علي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammad Hossam Eldin Mohammad Ahmed Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1240182</x:t>
@@ -497,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -797,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -984,7 +1002,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45915.9767662384</x:v>
+        <x:v>45907.4209944444</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1016,7 +1034,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4209944444</x:v>
+        <x:v>45907.6662685185</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1048,7 +1066,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6662685185</x:v>
+        <x:v>45915.9704462153</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1080,7 +1098,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.9704462153</x:v>
+        <x:v>45907.6670740394</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1112,7 +1130,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6670740394</x:v>
+        <x:v>45907.6674490741</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1144,7 +1162,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6674490741</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1176,7 +1194,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1208,7 +1226,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45907.6655696412</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1236,11 +1254,9 @@
       <x:c r="C13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1263,14 +1279,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45907.7043355671</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1302,7 +1320,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.7043355671</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1334,7 +1352,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1366,7 +1384,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45922.4207998032</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1748,7 +1766,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45922.4747480671</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1780,7 +1798,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6745321412</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1812,7 +1830,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6670702199</x:v>
+        <x:v>45907.6745321412</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1844,7 +1862,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6790899306</x:v>
+        <x:v>45907.6670702199</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1876,7 +1894,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45922.4582168982</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1908,7 +1926,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6790899306</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1940,7 +1958,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1972,7 +1990,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2004,7 +2022,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6750537384</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2036,7 +2054,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.667058831</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2068,7 +2086,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45907.6750537384</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2100,7 +2118,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45907.667058831</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2128,9 +2146,11 @@
       <x:c r="C41" s="2" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="D41" s="2" t="s"/>
+      <x:c r="D41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.7324891204</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2147,6 +2167,68 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45915.9642383912</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s"/>
+      <x:c r="E43" s="3">
+        <x:v>45909.7324891204</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Lecture-35407.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35407.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mohamed Fawzy Abdelmaboud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد ياسر رمضان ابراهيم والى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Yasser Ramadan Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>2230003</x:t>
@@ -515,7 +524,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -815,7 +824,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1002,7 +1011,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4209944444</x:v>
+        <x:v>45923.4810574074</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1034,7 +1043,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6662685185</x:v>
+        <x:v>45907.4209944444</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1066,7 +1075,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45915.9704462153</x:v>
+        <x:v>45907.6662685185</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1098,7 +1107,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6670740394</x:v>
+        <x:v>45915.9704462153</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1130,7 +1139,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6674490741</x:v>
+        <x:v>45907.6670740394</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1162,7 +1171,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45907.6674490741</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1194,7 +1203,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1226,7 +1235,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1254,9 +1263,11 @@
       <x:c r="C13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45907.6655696412</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1279,16 +1290,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45907.7043355671</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1320,7 +1329,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.7043355671</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1352,7 +1361,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1384,7 +1393,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45922.4207998032</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1416,7 +1425,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6673702546</x:v>
+        <x:v>45922.4207998032</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1448,7 +1457,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6669334144</x:v>
+        <x:v>45907.6673702546</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1480,7 +1489,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45921.9744525463</x:v>
+        <x:v>45907.6669334144</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1512,7 +1521,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45921.9744525463</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1540,9 +1549,11 @@
       <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s"/>
+      <x:c r="D22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.9761419329</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1565,16 +1576,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
+      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45915.9761419329</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1606,7 +1615,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.414240625</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1638,7 +1647,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45921.4167136574</x:v>
+        <x:v>45921.414240625</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1670,7 +1679,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6999077546</x:v>
+        <x:v>45921.4167136574</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1702,7 +1711,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6999077546</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1734,7 +1743,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4212085301</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1766,7 +1775,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45922.4747480671</x:v>
+        <x:v>45907.4212085301</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1798,7 +1807,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45922.4747480671</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1830,7 +1839,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6745321412</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1862,7 +1871,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6670702199</x:v>
+        <x:v>45907.6745321412</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1894,7 +1903,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45922.4582168982</x:v>
+        <x:v>45907.6670702199</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1926,7 +1935,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6790899306</x:v>
+        <x:v>45922.4582168982</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1958,7 +1967,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.6790899306</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1990,7 +1999,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2022,7 +2031,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2054,7 +2063,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2086,7 +2095,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6750537384</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2118,7 +2127,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.667058831</x:v>
+        <x:v>45907.6750537384</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2150,7 +2159,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45907.667058831</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2182,7 +2191,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2210,9 +2219,11 @@
       <x:c r="C43" s="2" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="D43" s="2" t="s"/>
+      <x:c r="D43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.7324891204</x:v>
+        <x:v>45915.9642383912</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2229,6 +2240,36 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s"/>
+      <x:c r="E44" s="3">
+        <x:v>45909.7324891204</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Lecture-35407.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35407.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -367,6 +367,15 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Ahmed Abdelrahman Hammad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>معاذ احمد محمد حمدي ابراهيم حسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moaz Ahmed Mohamed Hamdi Ibrahim Hussein</x:t>
   </x:si>
   <x:si>
     <x:t>1240155</x:t>
@@ -524,7 +533,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -824,7 +833,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2127,7 +2136,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6750537384</x:v>
+        <x:v>45923.9188539005</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2159,7 +2168,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.667058831</x:v>
+        <x:v>45907.6750537384</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2191,7 +2200,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45907.667058831</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2223,7 +2232,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2251,9 +2260,11 @@
       <x:c r="C44" s="2" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="D44" s="2" t="s"/>
+      <x:c r="D44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
       <x:c r="E44" s="3">
-        <x:v>45909.7324891204</x:v>
+        <x:v>45915.9642383912</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2270,6 +2281,36 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s"/>
+      <x:c r="E45" s="3">
+        <x:v>45909.7324891204</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Lecture-35407.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35407.xlsx
@@ -1944,7 +1944,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45922.4582168982</x:v>
+        <x:v>45924.432622338</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>

--- a/downloaded_files/CMPS101_Lecture-35407.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35407.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,15 +58,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mohamed Fawzy Abdelmaboud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد ياسر رمضان ابراهيم والى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Yasser Ramadan Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>2230003</x:t>
@@ -533,7 +524,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -833,7 +824,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1020,7 +1011,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45923.4810574074</x:v>
+        <x:v>45907.4209944444</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1052,7 +1043,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4209944444</x:v>
+        <x:v>45907.6662685185</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1084,7 +1075,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6662685185</x:v>
+        <x:v>45915.9704462153</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1116,7 +1107,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.9704462153</x:v>
+        <x:v>45907.6670740394</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1148,7 +1139,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6670740394</x:v>
+        <x:v>45907.6674490741</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1180,7 +1171,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6674490741</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1212,7 +1203,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1244,7 +1235,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45907.6655696412</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1272,11 +1263,9 @@
       <x:c r="C13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1299,14 +1288,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45907.7043355671</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1338,7 +1329,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.7043355671</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1370,7 +1361,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1402,7 +1393,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45922.4207998032</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1434,7 +1425,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45922.4207998032</x:v>
+        <x:v>45907.6673702546</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1466,7 +1457,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6673702546</x:v>
+        <x:v>45907.6669334144</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1498,7 +1489,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6669334144</x:v>
+        <x:v>45921.9744525463</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1530,7 +1521,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45921.9744525463</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1558,11 +1549,9 @@
       <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45915.9761419329</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1585,14 +1574,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45915.9761419329</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1624,7 +1615,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45921.414240625</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1656,7 +1647,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45921.414240625</x:v>
+        <x:v>45921.4167136574</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1688,7 +1679,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45921.4167136574</x:v>
+        <x:v>45907.6999077546</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1720,7 +1711,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6999077546</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1752,7 +1743,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.4212085301</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1784,7 +1775,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4212085301</x:v>
+        <x:v>45922.4747480671</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1816,7 +1807,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45922.4747480671</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1848,7 +1839,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.6745321412</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1880,7 +1871,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6745321412</x:v>
+        <x:v>45907.6670702199</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1912,7 +1903,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6670702199</x:v>
+        <x:v>45924.432622338</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1944,7 +1935,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45924.432622338</x:v>
+        <x:v>45907.6790899306</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1976,7 +1967,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6790899306</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2008,7 +1999,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2040,7 +2031,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2072,7 +2063,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2104,7 +2095,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45923.9188539005</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2136,7 +2127,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45923.9188539005</x:v>
+        <x:v>45907.6750537384</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2168,7 +2159,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6750537384</x:v>
+        <x:v>45907.667058831</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2200,7 +2191,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.667058831</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2232,7 +2223,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45915.9642383912</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2260,11 +2251,9 @@
       <x:c r="C44" s="2" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
+      <x:c r="D44" s="2" t="s"/>
       <x:c r="E44" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45909.7324891204</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2281,36 +2270,6 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:20">
-      <x:c r="A45" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B45" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="C45" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s"/>
-      <x:c r="E45" s="3">
-        <x:v>45909.7324891204</x:v>
-      </x:c>
-      <x:c r="F45" s="2" t="s"/>
-      <x:c r="G45" s="2" t="s"/>
-      <x:c r="H45" s="2" t="s"/>
-      <x:c r="I45" s="2" t="s"/>
-      <x:c r="J45" s="2" t="s"/>
-      <x:c r="K45" s="2" t="s"/>
-      <x:c r="L45" s="2" t="s"/>
-      <x:c r="M45" s="2" t="s"/>
-      <x:c r="N45" s="2" t="s"/>
-      <x:c r="O45" s="2" t="s"/>
-      <x:c r="P45" s="2" t="s"/>
-      <x:c r="Q45" s="2" t="s"/>
-      <x:c r="R45" s="2" t="s"/>
-      <x:c r="S45" s="2" t="s"/>
-      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Lecture-35407.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35407.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,15 +42,6 @@
     <x:t>Ahmed Osama Ahmed Fathy Abdellatif</x:t>
   </x:si>
   <x:si>
-    <x:t>1240004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد حمدي احمد ابراهيم على</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Hamdy Ahmed Ibrahim Ali</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240017</x:t>
   </x:si>
   <x:si>
@@ -123,15 +114,6 @@
     <x:t>Roaa mohamed eid mohamed sayed soliman</x:t>
   </x:si>
   <x:si>
-    <x:t>1240059</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رهف عمرو شفيق فريد احمد خفاجى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rahaf amr shafik faried ahmed khafagy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240195</x:t>
   </x:si>
   <x:si>
@@ -243,15 +225,6 @@
     <x:t>Aly Tamer AbdelKareem Mansy Abdelghaffar</x:t>
   </x:si>
   <x:si>
-    <x:t>1240101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر ايهاب عبدالفتاح عيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Ehab</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240122</x:t>
   </x:si>
   <x:si>
@@ -394,6 +367,15 @@
   </x:si>
   <x:si>
     <x:t>Nada Ahmad Mohamad AbdelHalim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد السيد احمد الشلقاني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef ahmed elsayed ahmed metwaley</x:t>
   </x:si>
   <x:si>
     <x:t>1240397</x:t>
@@ -524,7 +506,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -824,7 +806,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -947,7 +929,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.693634375</x:v>
+        <x:v>45907.6646043981</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -979,7 +961,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6646043981</x:v>
+        <x:v>45907.4209944444</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1011,7 +993,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4209944444</x:v>
+        <x:v>45907.6662685185</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1043,7 +1025,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6662685185</x:v>
+        <x:v>45915.9704462153</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1075,7 +1057,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45915.9704462153</x:v>
+        <x:v>45907.6670740394</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1107,7 +1089,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6670740394</x:v>
+        <x:v>45907.6674490741</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1139,7 +1121,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6674490741</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1171,7 +1153,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1199,11 +1181,9 @@
       <x:c r="C11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
+      <x:c r="D11" s="2" t="s"/>
       <x:c r="E11" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1226,16 +1206,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45907.7043355671</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1258,14 +1238,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1297,7 +1279,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.7043355671</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1329,7 +1311,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45922.4207998032</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1361,7 +1343,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45907.6673702546</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1393,7 +1375,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45922.4207998032</x:v>
+        <x:v>45907.6669334144</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1425,7 +1407,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6673702546</x:v>
+        <x:v>45921.9744525463</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1457,7 +1439,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6669334144</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1485,11 +1467,9 @@
       <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
+      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45921.9744525463</x:v>
+        <x:v>45915.9761419329</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1512,16 +1492,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1544,14 +1524,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45915.9761419329</x:v>
+        <x:v>45921.414240625</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1583,7 +1565,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45921.4167136574</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1615,7 +1597,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.414240625</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1647,7 +1629,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45921.4167136574</x:v>
+        <x:v>45907.4212085301</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1679,7 +1661,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6999077546</x:v>
+        <x:v>45922.4747480671</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1711,7 +1693,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1743,7 +1725,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4212085301</x:v>
+        <x:v>45907.6745321412</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1775,7 +1757,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45922.4747480671</x:v>
+        <x:v>45907.6670702199</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1807,7 +1789,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45924.432622338</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1839,7 +1821,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6745321412</x:v>
+        <x:v>45907.6790899306</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1871,7 +1853,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6670702199</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1903,7 +1885,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45924.432622338</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1935,7 +1917,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6790899306</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1967,7 +1949,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1999,7 +1981,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45923.9188539005</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2031,7 +2013,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6750537384</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2063,7 +2045,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45907.667058831</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2095,7 +2077,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45923.9188539005</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2127,7 +2109,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6750537384</x:v>
+        <x:v>45927.5052487269</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2159,7 +2141,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.667058831</x:v>
+        <x:v>45915.9642383912</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2187,11 +2169,9 @@
       <x:c r="C42" s="2" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
+      <x:c r="D42" s="2" t="s"/>
       <x:c r="E42" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45909.7324891204</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2208,68 +2188,6 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E43" s="3">
-        <x:v>45915.9642383912</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s"/>
-      <x:c r="E44" s="3">
-        <x:v>45909.7324891204</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Lecture-35407.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35407.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mohamed Fawzy Abdelmaboud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد ياسر رمضان ابراهيم والى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Yasser Ramadan Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>2230003</x:t>
@@ -506,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -806,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -961,7 +970,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4209944444</x:v>
+        <x:v>45927.8554200231</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -993,7 +1002,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6662685185</x:v>
+        <x:v>45907.4209944444</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1025,7 +1034,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45915.9704462153</x:v>
+        <x:v>45907.6662685185</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1057,7 +1066,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6670740394</x:v>
+        <x:v>45915.9704462153</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1089,7 +1098,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6674490741</x:v>
+        <x:v>45907.6670740394</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1121,7 +1130,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45907.6674490741</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1153,7 +1162,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1181,9 +1190,11 @@
       <x:c r="C11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s"/>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1206,16 +1217,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
+      <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45907.7043355671</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1247,7 +1256,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.7043355671</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1279,7 +1288,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1311,7 +1320,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45922.4207998032</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1343,7 +1352,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6673702546</x:v>
+        <x:v>45922.4207998032</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1375,7 +1384,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6669334144</x:v>
+        <x:v>45907.6673702546</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1407,7 +1416,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45921.9744525463</x:v>
+        <x:v>45907.6669334144</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1439,7 +1448,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45921.9744525463</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1467,9 +1476,11 @@
       <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s"/>
+      <x:c r="D20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.9761419329</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1492,16 +1503,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45915.9761419329</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1533,7 +1542,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45921.414240625</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1565,7 +1574,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45921.4167136574</x:v>
+        <x:v>45921.414240625</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1597,7 +1606,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45921.4167136574</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1629,7 +1638,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4212085301</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1661,7 +1670,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45922.4747480671</x:v>
+        <x:v>45907.4212085301</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1693,7 +1702,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45922.4747480671</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1725,7 +1734,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6745321412</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1757,7 +1766,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6670702199</x:v>
+        <x:v>45907.6745321412</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1789,7 +1798,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45924.432622338</x:v>
+        <x:v>45907.6670702199</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1821,7 +1830,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6790899306</x:v>
+        <x:v>45924.432622338</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.6790899306</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1885,7 +1894,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1917,7 +1926,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1949,7 +1958,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1981,7 +1990,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45923.9188539005</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2013,7 +2022,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6750537384</x:v>
+        <x:v>45923.9188539005</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2045,7 +2054,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.667058831</x:v>
+        <x:v>45907.6750537384</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2077,7 +2086,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45907.667058831</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2109,7 +2118,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45927.5052487269</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2141,7 +2150,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45927.5052487269</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2169,9 +2178,11 @@
       <x:c r="C42" s="2" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="D42" s="2" t="s"/>
+      <x:c r="D42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.7324891204</x:v>
+        <x:v>45915.9642383912</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2188,6 +2199,36 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s"/>
+      <x:c r="E43" s="3">
+        <x:v>45909.7324891204</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Lecture-35407.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35407.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -313,15 +313,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Tarek Mohamed Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود احمد محمود احمد محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Ahmed Mahmoud Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240371</x:t>
@@ -515,7 +506,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -815,7 +806,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1926,7 +1917,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1958,7 +1949,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1990,7 +1981,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45923.9188539005</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2022,7 +2013,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45923.9188539005</x:v>
+        <x:v>45907.6750537384</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2054,7 +2045,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6750537384</x:v>
+        <x:v>45907.667058831</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2086,7 +2077,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.667058831</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2118,7 +2109,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45927.5052487269</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2150,7 +2141,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45927.5052487269</x:v>
+        <x:v>45915.9642383912</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2178,11 +2169,9 @@
       <x:c r="C42" s="2" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
+      <x:c r="D42" s="2" t="s"/>
       <x:c r="E42" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45909.7324891204</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2199,36 +2188,6 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s"/>
-      <x:c r="E43" s="3">
-        <x:v>45909.7324891204</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Lecture-35407.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35407.xlsx
@@ -78,6 +78,15 @@
     <x:t>Amin Hatem Ali Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بسمه يحيي العدوي علي شوشه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Basma yahia eladwey</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240295</x:t>
   </x:si>
   <x:si>
@@ -172,15 +181,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Mohamed Moharam mostafa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الله عمرو شفيق فريد احمد خفاجى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdallah Khafagy</x:t>
   </x:si>
   <x:si>
     <x:t>1240083</x:t>
@@ -1057,7 +1057,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45915.9704462153</x:v>
+        <x:v>45928.9788960648</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1089,7 +1089,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6670740394</x:v>
+        <x:v>45915.9704462153</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1121,7 +1121,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6674490741</x:v>
+        <x:v>45907.6670740394</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1153,7 +1153,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45907.6674490741</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1185,7 +1185,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1213,9 +1213,11 @@
       <x:c r="C12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1238,16 +1240,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45907.7043355671</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1279,7 +1279,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.7043355671</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1311,7 +1311,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1343,7 +1343,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45922.4207998032</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1375,7 +1375,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6673702546</x:v>
+        <x:v>45922.4207998032</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1407,7 +1407,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6669334144</x:v>
+        <x:v>45907.6673702546</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>

--- a/downloaded_files/CMPS101_Lecture-35407.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35407.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -304,6 +304,15 @@
   </x:si>
   <x:si>
     <x:t>mohamed khaled abd el azeez mohamedd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد سعد السيد محمد دبور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1230105</x:t>
@@ -506,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -806,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1885,7 +1894,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45931.5381655903</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1917,7 +1926,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1949,7 +1958,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1981,7 +1990,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45923.9188539005</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2013,7 +2022,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6750537384</x:v>
+        <x:v>45923.9188539005</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2045,7 +2054,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.667058831</x:v>
+        <x:v>45907.6750537384</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2077,7 +2086,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45907.667058831</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2109,7 +2118,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45927.5052487269</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2141,7 +2150,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45927.5052487269</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2169,9 +2178,11 @@
       <x:c r="C42" s="2" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="D42" s="2" t="s"/>
+      <x:c r="D42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.7324891204</x:v>
+        <x:v>45915.9642383912</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2188,6 +2199,36 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s"/>
+      <x:c r="E43" s="3">
+        <x:v>45909.7324891204</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Lecture-35407.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35407.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,15 +85,6 @@
   </x:si>
   <x:si>
     <x:t>Basma yahia eladwey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240295</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جنى طارق عبد اللطيف محمد خطيب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jana Tarek Abdellatif Mohamed Khatib</x:t>
   </x:si>
   <x:si>
     <x:t>1240298</x:t>
@@ -515,7 +506,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -815,7 +806,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1098,7 +1089,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.9704462153</x:v>
+        <x:v>45907.6670740394</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1130,7 +1121,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6670740394</x:v>
+        <x:v>45907.6674490741</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1162,7 +1153,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6674490741</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1194,7 +1185,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1222,11 +1213,9 @@
       <x:c r="C12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
+      <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1249,14 +1238,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45907.7043355671</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1288,7 +1279,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.7043355671</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1320,7 +1311,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1352,7 +1343,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45922.4207998032</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1384,7 +1375,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45922.4207998032</x:v>
+        <x:v>45907.6673702546</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1416,7 +1407,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6673702546</x:v>
+        <x:v>45921.9744525463</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1448,7 +1439,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45921.9744525463</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1476,11 +1467,9 @@
       <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
+      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45915.9761419329</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1503,14 +1492,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45915.9761419329</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1542,7 +1533,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45921.414240625</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1574,7 +1565,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45921.414240625</x:v>
+        <x:v>45921.4167136574</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1606,7 +1597,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.4167136574</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1638,7 +1629,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.4212085301</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1670,7 +1661,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4212085301</x:v>
+        <x:v>45922.4747480671</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1702,7 +1693,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45922.4747480671</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1734,7 +1725,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.6745321412</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1766,7 +1757,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6745321412</x:v>
+        <x:v>45907.6670702199</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1798,7 +1789,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6670702199</x:v>
+        <x:v>45924.432622338</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1830,7 +1821,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45924.432622338</x:v>
+        <x:v>45907.6790899306</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1862,7 +1853,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6790899306</x:v>
+        <x:v>45931.5381655903</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1894,7 +1885,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45931.5381655903</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1926,7 +1917,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1958,7 +1949,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1990,7 +1981,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45923.9188539005</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2022,7 +2013,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45923.9188539005</x:v>
+        <x:v>45907.6750537384</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2054,7 +2045,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6750537384</x:v>
+        <x:v>45907.667058831</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2086,7 +2077,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.667058831</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2118,7 +2109,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45927.5052487269</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2150,7 +2141,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45927.5052487269</x:v>
+        <x:v>45915.9642383912</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2178,11 +2169,9 @@
       <x:c r="C42" s="2" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
+      <x:c r="D42" s="2" t="s"/>
       <x:c r="E42" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45909.7324891204</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2199,36 +2188,6 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s"/>
-      <x:c r="E43" s="3">
-        <x:v>45909.7324891204</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Lecture-35407.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35407.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -295,15 +295,6 @@
   </x:si>
   <x:si>
     <x:t>mohamed khaled abd el azeez mohamedd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد سعد السيد محمد دبور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1230105</x:t>
@@ -506,7 +497,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -806,7 +797,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1853,7 +1844,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45931.5381655903</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1885,7 +1876,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1917,7 +1908,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1949,7 +1940,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45923.9188539005</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1981,7 +1972,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45923.9188539005</x:v>
+        <x:v>45907.6750537384</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2013,7 +2004,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6750537384</x:v>
+        <x:v>45907.667058831</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2045,7 +2036,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.667058831</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2077,7 +2068,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45927.5052487269</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2109,7 +2100,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45927.5052487269</x:v>
+        <x:v>45915.9642383912</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2137,11 +2128,9 @@
       <x:c r="C41" s="2" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
+      <x:c r="D41" s="2" t="s"/>
       <x:c r="E41" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45909.7324891204</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2158,36 +2147,6 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s"/>
-      <x:c r="E42" s="3">
-        <x:v>45909.7324891204</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Lecture-35407.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35407.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -126,7 +126,10 @@
     <x:t>1240195</x:t>
   </x:si>
   <x:si>
-    <x:t>زياد محمود حشمت سيف النصر</x:t>
+    <x:t>زياد محمود حشمت سيف النصر عبد الرحيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeyad Mahmoud Hishmat Seifelnasr Abdelraheem</x:t>
   </x:si>
   <x:si>
     <x:t>1240320</x:t>
@@ -1204,7 +1207,9 @@
       <x:c r="C12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="E12" s="3">
         <x:v>45907.6646548264</x:v>
       </x:c>
@@ -1229,13 +1234,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
         <x:v>45907.7043355671</x:v>
@@ -1261,13 +1266,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
         <x:v>45907.6651076736</x:v>
@@ -1293,13 +1298,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
         <x:v>45907.6651743056</x:v>
@@ -1325,13 +1330,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
         <x:v>45922.4207998032</x:v>
@@ -1357,13 +1362,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
         <x:v>45907.6673702546</x:v>
@@ -1389,13 +1394,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
         <x:v>45921.9744525463</x:v>
@@ -1421,13 +1426,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
         <x:v>45907.6648109143</x:v>
@@ -1453,10 +1458,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
@@ -1483,13 +1488,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45907.6656820602</x:v>
@@ -1515,13 +1520,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45921.414240625</x:v>
@@ -1547,13 +1552,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
         <x:v>45921.4167136574</x:v>
@@ -1579,13 +1584,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
         <x:v>45907.6648360764</x:v>
@@ -1611,13 +1616,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45907.4212085301</x:v>
@@ -1643,13 +1648,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45922.4747480671</x:v>
@@ -1675,13 +1680,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45907.6651607639</x:v>
@@ -1707,13 +1712,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
         <x:v>45907.6745321412</x:v>
@@ -1739,13 +1744,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45907.6670702199</x:v>
@@ -1771,13 +1776,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
         <x:v>45924.432622338</x:v>
@@ -1803,13 +1808,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
         <x:v>45907.6790899306</x:v>
@@ -1835,13 +1840,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:v>45907.6646984606</x:v>
@@ -1867,13 +1872,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>45907.6658451389</x:v>
@@ -1899,13 +1904,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
         <x:v>45907.6658153935</x:v>
@@ -1931,13 +1936,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
         <x:v>45923.9188539005</x:v>
@@ -1963,13 +1968,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
         <x:v>45907.6750537384</x:v>
@@ -1995,13 +2000,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>45907.667058831</x:v>
@@ -2027,13 +2032,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:v>45907.6654758102</x:v>
@@ -2059,13 +2064,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D39" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
         <x:v>45927.5052487269</x:v>
@@ -2091,13 +2096,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
         <x:v>45915.9642383912</x:v>
@@ -2123,10 +2128,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s"/>
       <x:c r="E41" s="3">
